--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Abdelaziz El Maatougui.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Abdelaziz El Maatougui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="470">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -9416,21 +9416,20 @@
       </c>
     </row>
     <row r="46" ht="15.6" customHeight="true">
-      <c r="Z46" s="104" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA46" s="109" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AB46" s="109" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="AC46" s="106" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="109"/>
+      <c r="AB46" s="109"/>
+      <c r="AC46" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
@@ -9440,13 +9439,6 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Abdelaziz El Maatougui.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Abdelaziz El Maatougui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="471">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -1434,6 +1434,9 @@
   </si>
   <si>
     <t>31/10/2022</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -5750,7 +5753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="520">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6890,6 +6893,84 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -7419,36 +7500,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="true"/>
-    <col min="2" max="2" width="6.77734375" customWidth="true"/>
-    <col min="3" max="3" width="6.77734375" customWidth="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true"/>
-    <col min="7" max="7" width="6.77734375" customWidth="true"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true"/>
-    <col min="9" max="9" width="2.77734375" customWidth="true"/>
-    <col min="10" max="10" width="6.77734375" customWidth="true"/>
-    <col min="11" max="11" width="6.77734375" customWidth="true"/>
-    <col min="12" max="12" width="6.77734375" customWidth="true"/>
-    <col min="13" max="13" width="6.77734375" customWidth="true"/>
-    <col min="14" max="14" width="6.77734375" customWidth="true"/>
-    <col min="15" max="15" width="6.77734375" customWidth="true"/>
-    <col min="16" max="16" width="6.77734375" customWidth="true"/>
-    <col min="17" max="17" width="2.77734375" customWidth="true"/>
-    <col min="18" max="18" width="6.77734375" customWidth="true"/>
-    <col min="19" max="19" width="6.77734375" customWidth="true"/>
-    <col min="20" max="20" width="6.77734375" customWidth="true"/>
-    <col min="21" max="21" width="6.77734375" customWidth="true"/>
-    <col min="22" max="22" width="6.77734375" customWidth="true"/>
-    <col min="23" max="23" width="6.77734375" customWidth="true"/>
-    <col min="24" max="24" width="6.77734375" customWidth="true"/>
-    <col min="25" max="25" width="10.0" customWidth="true"/>
-    <col min="26" max="26" width="5.77734375" customWidth="true"/>
-    <col min="27" max="27" width="25.0" customWidth="true"/>
-    <col min="28" max="28" width="25.0" customWidth="true"/>
-    <col min="29" max="29" width="25.0" customWidth="true"/>
-    <col min="30" max="30" width="10.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="5.77734375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="true">
@@ -9452,23 +9533,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10048,23 +10129,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10651,23 +10732,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11245,23 +11326,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11847,23 +11928,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -12042,8 +12123,12 @@
       <c r="B18" s="131" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="132"/>
-      <c r="E18" s="132"/>
+      <c r="C18" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G18" s="129" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -12053,8 +12138,12 @@
       <c r="B19" s="131" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="132"/>
-      <c r="E19" s="132"/>
+      <c r="C19" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="129" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -12064,8 +12153,12 @@
       <c r="B20" s="131" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="E20" s="132"/>
+      <c r="C20" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G20" s="129" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -12085,8 +12178,12 @@
       <c r="B22" s="131" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="E22" s="132"/>
+      <c r="C22" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G22" s="129" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -12116,8 +12213,12 @@
       <c r="B25" s="131" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="132"/>
-      <c r="E25" s="132"/>
+      <c r="C25" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G25" s="129" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -12127,8 +12228,12 @@
       <c r="B26" s="131" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="E26" s="132"/>
+      <c r="C26" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="129" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -12138,8 +12243,12 @@
       <c r="B27" s="131" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="132"/>
-      <c r="E27" s="132"/>
+      <c r="C27" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G27" s="129" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -12149,8 +12258,12 @@
       <c r="B28" s="131" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="132"/>
-      <c r="E28" s="132"/>
+      <c r="C28" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G28" s="129" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -12160,8 +12273,12 @@
       <c r="B29" s="131" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="E29" s="132"/>
+      <c r="C29" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G29" s="129" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12191,8 +12308,12 @@
       <c r="B32" s="131" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="132"/>
-      <c r="E32" s="132"/>
+      <c r="C32" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G32" s="129" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12202,8 +12323,12 @@
       <c r="B33" s="131" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="132"/>
-      <c r="E33" s="132"/>
+      <c r="C33" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G33" s="129" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12213,8 +12338,12 @@
       <c r="B34" s="131" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="132"/>
-      <c r="E34" s="132"/>
+      <c r="C34" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E34" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G34" s="129" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -12224,8 +12353,12 @@
       <c r="B35" s="131" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="132"/>
-      <c r="E35" s="132"/>
+      <c r="C35" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G35" s="129" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -12235,8 +12368,12 @@
       <c r="B36" s="131" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="132"/>
-      <c r="E36" s="132"/>
+      <c r="C36" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G36" s="129" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12266,8 +12403,12 @@
       <c r="B39" s="131" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="132"/>
-      <c r="E39" s="132"/>
+      <c r="C39" s="501" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E39" s="501" t="n">
+        <v>0.71875</v>
+      </c>
       <c r="G39" s="129" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12277,8 +12418,12 @@
       <c r="B40" s="131" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="132"/>
-      <c r="E40" s="132"/>
+      <c r="C40" s="501" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E40" s="501" t="n">
+        <v>0.71875</v>
+      </c>
       <c r="G40" s="129" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12288,8 +12433,12 @@
       <c r="B41" s="131" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="132"/>
-      <c r="E41" s="132"/>
+      <c r="C41" s="501" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E41" s="501" t="n">
+        <v>0.71875</v>
+      </c>
       <c r="G41" s="129" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -12299,8 +12448,12 @@
       <c r="B42" s="131" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="132"/>
-      <c r="E42" s="132"/>
+      <c r="C42" s="501" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E42" s="501" t="n">
+        <v>0.71875</v>
+      </c>
       <c r="G42" s="129" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -12310,8 +12463,12 @@
       <c r="B43" s="131" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="132"/>
-      <c r="E43" s="132"/>
+      <c r="C43" s="501" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E43" s="501" t="n">
+        <v>0.71875</v>
+      </c>
       <c r="G43" s="129" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -12341,8 +12498,12 @@
       <c r="B46" s="131" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="132"/>
-      <c r="E46" s="132"/>
+      <c r="C46" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E46" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G46" s="129" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -12471,23 +12632,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -12645,8 +12806,12 @@
       <c r="B16" s="165" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="166"/>
-      <c r="E16" s="166"/>
+      <c r="C16" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="495" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="163" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -12656,8 +12821,12 @@
       <c r="B17" s="165" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="166"/>
-      <c r="E17" s="166"/>
+      <c r="C17" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="495" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G17" s="163" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -12667,8 +12836,12 @@
       <c r="B18" s="165" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="166"/>
-      <c r="E18" s="166"/>
+      <c r="C18" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="495" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G18" s="163" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -12678,8 +12851,12 @@
       <c r="B19" s="165" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="166"/>
-      <c r="E19" s="166"/>
+      <c r="C19" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="495" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="163" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -12709,8 +12886,12 @@
       <c r="B22" s="165" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="166"/>
-      <c r="E22" s="166"/>
+      <c r="C22" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="495" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G22" s="163" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -12720,8 +12901,12 @@
       <c r="B23" s="165" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="E23" s="166"/>
+      <c r="C23" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="495" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G23" s="163" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -12731,8 +12916,12 @@
       <c r="B24" s="165" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="166"/>
-      <c r="E24" s="166"/>
+      <c r="C24" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="495" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G24" s="163" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -12742,8 +12931,12 @@
       <c r="B25" s="165" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="166"/>
-      <c r="E25" s="166"/>
+      <c r="C25" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="495" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G25" s="163" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -12753,8 +12946,12 @@
       <c r="B26" s="165" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="166"/>
-      <c r="E26" s="166"/>
+      <c r="C26" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="495" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="163" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -12784,8 +12981,12 @@
       <c r="B29" s="165" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="166"/>
-      <c r="E29" s="166"/>
+      <c r="C29" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="495" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G29" s="163" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12795,8 +12996,12 @@
       <c r="B30" s="165" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="166"/>
-      <c r="E30" s="166"/>
+      <c r="C30" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="495" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G30" s="163" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -12806,8 +13011,12 @@
       <c r="B31" s="165" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="166"/>
-      <c r="E31" s="166"/>
+      <c r="C31" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="495" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G31" s="163" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -12817,8 +13026,12 @@
       <c r="B32" s="165" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="E32" s="166"/>
+      <c r="C32" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="495" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G32" s="163" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12828,8 +13041,12 @@
       <c r="B33" s="165" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="166"/>
-      <c r="E33" s="166"/>
+      <c r="C33" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="495" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G33" s="163" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12859,8 +13076,12 @@
       <c r="B36" s="165" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="166"/>
-      <c r="E36" s="166"/>
+      <c r="C36" s="495" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="495" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="163" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12870,8 +13091,12 @@
       <c r="B37" s="165" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="166"/>
-      <c r="E37" s="166"/>
+      <c r="C37" s="495" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E37" s="495" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G37" s="163" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -12881,8 +13106,12 @@
       <c r="B38" s="165" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="166"/>
-      <c r="E38" s="166"/>
+      <c r="C38" s="495" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E38" s="495" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G38" s="163" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -12892,8 +13121,12 @@
       <c r="B39" s="165" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="166"/>
-      <c r="E39" s="166"/>
+      <c r="C39" s="495" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E39" s="495" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G39" s="163" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12903,8 +13136,12 @@
       <c r="B40" s="165" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="166"/>
-      <c r="E40" s="166"/>
+      <c r="C40" s="495" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E40" s="495" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G40" s="163" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12934,8 +13171,12 @@
       <c r="B43" s="165" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="166"/>
-      <c r="E43" s="166"/>
+      <c r="C43" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="495" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="163" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -13080,23 +13321,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13254,8 +13495,12 @@
       <c r="B16" s="199" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="200"/>
-      <c r="E16" s="200"/>
+      <c r="C16" s="518" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="518" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="197" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -13265,8 +13510,12 @@
       <c r="B17" s="199" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="200"/>
-      <c r="E17" s="200"/>
+      <c r="C17" s="518" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="518" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G17" s="197" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -13276,8 +13525,12 @@
       <c r="B18" s="199" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="200"/>
-      <c r="E18" s="200"/>
+      <c r="C18" s="518" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="518" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G18" s="197" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -13287,8 +13540,12 @@
       <c r="B19" s="199" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="200"/>
-      <c r="E19" s="200"/>
+      <c r="C19" s="518" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="518" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="197" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -13318,8 +13575,12 @@
       <c r="B22" s="199" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="200"/>
-      <c r="E22" s="200"/>
+      <c r="C22" s="518" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="518" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G22" s="197" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -13329,8 +13590,12 @@
       <c r="B23" s="199" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="200"/>
-      <c r="E23" s="200"/>
+      <c r="C23" s="518" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="518" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G23" s="197" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -13340,8 +13605,12 @@
       <c r="B24" s="199" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="200"/>
-      <c r="E24" s="200"/>
+      <c r="C24" s="518" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="518" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G24" s="197" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -13351,8 +13620,12 @@
       <c r="B25" s="199" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="200"/>
-      <c r="E25" s="200"/>
+      <c r="C25" s="518" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="518" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G25" s="197" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -13362,8 +13635,12 @@
       <c r="B26" s="199" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="200"/>
-      <c r="E26" s="200"/>
+      <c r="C26" s="518" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="518" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="197" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -13393,8 +13670,12 @@
       <c r="B29" s="199" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="200"/>
-      <c r="E29" s="200"/>
+      <c r="C29" s="518" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="518" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G29" s="197" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -13404,8 +13685,12 @@
       <c r="B30" s="199" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="200"/>
-      <c r="E30" s="200"/>
+      <c r="C30" s="518" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="518" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G30" s="197" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -13415,8 +13700,12 @@
       <c r="B31" s="199" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="200"/>
-      <c r="E31" s="200"/>
+      <c r="C31" s="518" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="518" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G31" s="197" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -13426,22 +13715,28 @@
       <c r="B32" s="199" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="200"/>
-      <c r="E32" s="200"/>
-      <c r="G32" s="197" t="n">
-        <f>((E32-C32)*24)-1</f>
-        <v>0.0</v>
+      <c r="C32" s="200" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="200" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="197" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
       <c r="B33" s="199" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="200"/>
-      <c r="E33" s="200"/>
-      <c r="G33" s="197" t="n">
-        <f>((E33-C33)*24)-1</f>
-        <v>0.0</v>
+      <c r="C33" s="200" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="200" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="197" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
@@ -13468,8 +13763,12 @@
       <c r="B36" s="199" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="200"/>
-      <c r="E36" s="200"/>
+      <c r="C36" s="518" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="518" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="197" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -13479,8 +13778,12 @@
       <c r="B37" s="199" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="200"/>
-      <c r="E37" s="200"/>
+      <c r="C37" s="518" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E37" s="518" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G37" s="197" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -13490,8 +13793,12 @@
       <c r="B38" s="199" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="200"/>
-      <c r="E38" s="200"/>
+      <c r="C38" s="518" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E38" s="518" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G38" s="197" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -13501,8 +13808,12 @@
       <c r="B39" s="199" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="200"/>
-      <c r="E39" s="200"/>
+      <c r="C39" s="518" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E39" s="518" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G39" s="197" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -13512,8 +13823,12 @@
       <c r="B40" s="199" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="200"/>
-      <c r="E40" s="200"/>
+      <c r="C40" s="518" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E40" s="518" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G40" s="197" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -13543,8 +13858,12 @@
       <c r="B43" s="199" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="200"/>
-      <c r="E43" s="200"/>
+      <c r="C43" s="518" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="518" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="197" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -13554,8 +13873,12 @@
       <c r="B44" s="199" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="200"/>
-      <c r="E44" s="200"/>
+      <c r="C44" s="518" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="518" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G44" s="197" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -13565,8 +13888,12 @@
       <c r="B45" s="199" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="200"/>
-      <c r="E45" s="200"/>
+      <c r="C45" s="518" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E45" s="518" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G45" s="197" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
@@ -13576,8 +13903,12 @@
       <c r="B46" s="199" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="200"/>
-      <c r="E46" s="200"/>
+      <c r="C46" s="518" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E46" s="518" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G46" s="197" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -13701,23 +14032,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13906,8 +14237,12 @@
       <c r="B19" s="232" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="233"/>
-      <c r="E19" s="233"/>
+      <c r="C19" s="519" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="519" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="230" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -13917,8 +14252,12 @@
       <c r="B20" s="232" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="233"/>
-      <c r="E20" s="233"/>
+      <c r="C20" s="519" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="519" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G20" s="230" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -13928,8 +14267,12 @@
       <c r="B21" s="232" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="233"/>
-      <c r="E21" s="233"/>
+      <c r="C21" s="519" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="519" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G21" s="230" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -13939,8 +14282,12 @@
       <c r="B22" s="232" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="233"/>
-      <c r="E22" s="233"/>
+      <c r="C22" s="519" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="519" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G22" s="230" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -13950,8 +14297,12 @@
       <c r="B23" s="232" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="233"/>
-      <c r="E23" s="233"/>
+      <c r="C23" s="519" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="519" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G23" s="230" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -13981,8 +14332,12 @@
       <c r="B26" s="232" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="233"/>
-      <c r="E26" s="233"/>
+      <c r="C26" s="519" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="519" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="230" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -13992,8 +14347,12 @@
       <c r="B27" s="232" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="233"/>
-      <c r="E27" s="233"/>
+      <c r="C27" s="519" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="519" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G27" s="230" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -14064,8 +14423,12 @@
       <c r="B34" s="232" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="233"/>
-      <c r="E34" s="233"/>
+      <c r="C34" s="519" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="E34" s="519" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G34" s="230" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -14075,8 +14438,12 @@
       <c r="B35" s="232" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="233"/>
-      <c r="E35" s="233"/>
+      <c r="C35" s="519" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="E35" s="519" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G35" s="230" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -14086,8 +14453,12 @@
       <c r="B36" s="232" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="233"/>
-      <c r="E36" s="233"/>
+      <c r="C36" s="519" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="E36" s="519" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G36" s="230" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -14097,8 +14468,12 @@
       <c r="B37" s="232" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="233"/>
-      <c r="E37" s="233"/>
+      <c r="C37" s="519" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="E37" s="519" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G37" s="230" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -14128,8 +14503,12 @@
       <c r="B40" s="232" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="233"/>
-      <c r="E40" s="233"/>
+      <c r="C40" s="519" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E40" s="519" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G40" s="230" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -14139,8 +14518,12 @@
       <c r="B41" s="232" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="233"/>
-      <c r="E41" s="233"/>
+      <c r="C41" s="519" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="519" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G41" s="230" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -14150,8 +14533,12 @@
       <c r="B42" s="232" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="233"/>
-      <c r="E42" s="233"/>
+      <c r="C42" s="519" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="519" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G42" s="230" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -14161,8 +14548,12 @@
       <c r="B43" s="232" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="233"/>
-      <c r="E43" s="233"/>
+      <c r="C43" s="519" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="519" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="230" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -14172,8 +14563,12 @@
       <c r="B44" s="232" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="233"/>
-      <c r="E44" s="233"/>
+      <c r="C44" s="519" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="519" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G44" s="230" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -14312,23 +14707,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14932,23 +15327,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -15532,23 +15927,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -16135,23 +16530,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Abdelaziz El Maatougui.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Abdelaziz El Maatougui.xlsx
@@ -5753,7 +5753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="520">
+  <cellXfs count="558">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6893,6 +6893,120 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -12610,6 +12724,7 @@
       <c r="H62" s="143"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -13299,6 +13414,7 @@
       <c r="H62" s="177"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B58:H62"/>
@@ -14010,6 +14126,7 @@
       <c r="H62" s="210"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -14891,8 +15008,12 @@
       <c r="B17" s="265" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="266"/>
-      <c r="E17" s="266"/>
+      <c r="C17" s="531" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="531" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G17" s="263" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -14902,8 +15023,12 @@
       <c r="B18" s="265" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="266"/>
-      <c r="E18" s="266"/>
+      <c r="C18" s="531" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="531" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G18" s="263" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -14913,8 +15038,12 @@
       <c r="B19" s="265" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="266"/>
-      <c r="E19" s="266"/>
+      <c r="C19" s="531" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="531" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="263" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -14924,8 +15053,12 @@
       <c r="B20" s="265" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="266"/>
-      <c r="E20" s="266"/>
+      <c r="C20" s="531" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="531" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G20" s="263" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -14935,8 +15068,12 @@
       <c r="B21" s="265" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="266"/>
-      <c r="E21" s="266"/>
+      <c r="C21" s="531" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="531" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G21" s="263" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -14966,8 +15103,12 @@
       <c r="B24" s="265" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="266"/>
-      <c r="E24" s="266"/>
+      <c r="C24" s="531" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="531" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G24" s="263" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -14977,8 +15118,12 @@
       <c r="B25" s="265" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="266"/>
-      <c r="E25" s="266"/>
+      <c r="C25" s="531" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="531" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G25" s="263" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -14988,8 +15133,12 @@
       <c r="B26" s="265" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="266"/>
-      <c r="E26" s="266"/>
+      <c r="C26" s="531" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="531" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="263" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -14999,8 +15148,12 @@
       <c r="B27" s="265" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="266"/>
-      <c r="E27" s="266"/>
+      <c r="C27" s="531" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="531" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G27" s="263" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -15010,8 +15163,12 @@
       <c r="B28" s="265" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="266"/>
-      <c r="E28" s="266"/>
+      <c r="C28" s="531" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="531" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G28" s="263" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -15041,8 +15198,12 @@
       <c r="B31" s="265" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="266"/>
-      <c r="E31" s="266"/>
+      <c r="C31" s="531" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E31" s="531" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G31" s="263" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -15052,8 +15213,12 @@
       <c r="B32" s="265" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="266"/>
-      <c r="E32" s="266"/>
+      <c r="C32" s="531" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E32" s="531" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G32" s="263" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -15063,8 +15228,12 @@
       <c r="B33" s="265" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="266"/>
-      <c r="E33" s="266"/>
+      <c r="C33" s="531" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E33" s="531" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G33" s="263" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -15074,8 +15243,12 @@
       <c r="B34" s="265" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="266"/>
-      <c r="E34" s="266"/>
+      <c r="C34" s="531" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E34" s="531" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G34" s="263" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -15085,8 +15258,12 @@
       <c r="B35" s="265" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="266"/>
-      <c r="E35" s="266"/>
+      <c r="C35" s="531" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E35" s="531" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G35" s="263" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -15116,8 +15293,12 @@
       <c r="B38" s="265" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="266"/>
-      <c r="E38" s="266"/>
+      <c r="C38" s="531" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E38" s="531" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G38" s="263" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -15127,8 +15308,12 @@
       <c r="B39" s="265" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="266"/>
-      <c r="E39" s="266"/>
+      <c r="C39" s="531" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E39" s="531" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G39" s="263" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -15138,8 +15323,12 @@
       <c r="B40" s="265" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="266"/>
-      <c r="E40" s="266"/>
+      <c r="C40" s="531" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E40" s="531" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G40" s="263" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -15149,8 +15338,12 @@
       <c r="B41" s="265" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="266"/>
-      <c r="E41" s="266"/>
+      <c r="C41" s="531" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="531" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G41" s="263" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -15160,8 +15353,12 @@
       <c r="B42" s="265" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="266"/>
-      <c r="E42" s="266"/>
+      <c r="C42" s="531" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="531" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G42" s="263" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -15191,8 +15388,12 @@
       <c r="B45" s="265" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="266"/>
-      <c r="E45" s="266"/>
+      <c r="C45" s="531" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E45" s="531" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G45" s="263" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
@@ -15202,8 +15403,12 @@
       <c r="B46" s="265" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="266"/>
-      <c r="E46" s="266"/>
+      <c r="C46" s="531" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E46" s="531" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G46" s="263" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -15305,6 +15510,7 @@
       <c r="H62" s="276"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -15490,8 +15696,12 @@
       <c r="B16" s="297" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="298"/>
-      <c r="E16" s="298"/>
+      <c r="C16" s="543" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="543" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="295" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -15501,8 +15711,12 @@
       <c r="B17" s="297" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="298"/>
-      <c r="E17" s="298"/>
+      <c r="C17" s="543" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="543" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G17" s="295" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -15512,8 +15726,12 @@
       <c r="B18" s="297" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="298"/>
-      <c r="E18" s="298"/>
+      <c r="C18" s="543" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="543" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G18" s="295" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -15543,8 +15761,12 @@
       <c r="B21" s="297" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="298"/>
-      <c r="E21" s="298"/>
+      <c r="C21" s="543" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="543" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G21" s="295" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -15554,8 +15776,12 @@
       <c r="B22" s="297" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="298"/>
-      <c r="E22" s="298"/>
+      <c r="C22" s="543" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="543" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G22" s="295" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -15565,8 +15791,12 @@
       <c r="B23" s="297" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="298"/>
-      <c r="E23" s="298"/>
+      <c r="C23" s="543" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="543" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G23" s="295" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -15576,8 +15806,12 @@
       <c r="B24" s="297" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="298"/>
-      <c r="E24" s="298"/>
+      <c r="C24" s="543" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="543" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G24" s="295" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -15587,8 +15821,12 @@
       <c r="B25" s="297" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="298"/>
-      <c r="E25" s="298"/>
+      <c r="C25" s="543" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="543" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G25" s="295" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -15618,8 +15856,12 @@
       <c r="B28" s="297" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="298"/>
-      <c r="E28" s="298"/>
+      <c r="C28" s="543" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="E28" s="543" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G28" s="295" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -15629,8 +15871,12 @@
       <c r="B29" s="297" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="298"/>
-      <c r="E29" s="298"/>
+      <c r="C29" s="543" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="E29" s="543" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G29" s="295" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -15640,8 +15886,12 @@
       <c r="B30" s="297" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="298"/>
-      <c r="E30" s="298"/>
+      <c r="C30" s="543" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="E30" s="543" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G30" s="295" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -15651,8 +15901,12 @@
       <c r="B31" s="297" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="298"/>
-      <c r="E31" s="298"/>
+      <c r="C31" s="543" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="E31" s="543" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G31" s="295" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -15662,8 +15916,12 @@
       <c r="B32" s="297" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="298"/>
-      <c r="E32" s="298"/>
+      <c r="C32" s="543" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="E32" s="543" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G32" s="295" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -15693,8 +15951,12 @@
       <c r="B35" s="297" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="298"/>
-      <c r="E35" s="298"/>
+      <c r="C35" s="543" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="543" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G35" s="295" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -15704,8 +15966,12 @@
       <c r="B36" s="297" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="298"/>
-      <c r="E36" s="298"/>
+      <c r="C36" s="543" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="543" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G36" s="295" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -15715,8 +15981,12 @@
       <c r="B37" s="297" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="298"/>
-      <c r="E37" s="298"/>
+      <c r="C37" s="543" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="543" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G37" s="295" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -15726,8 +15996,12 @@
       <c r="B38" s="297" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="298"/>
-      <c r="E38" s="298"/>
+      <c r="C38" s="543" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E38" s="543" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G38" s="295" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -15737,8 +16011,12 @@
       <c r="B39" s="297" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="298"/>
-      <c r="E39" s="298"/>
+      <c r="C39" s="543" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E39" s="543" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G39" s="295" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -15768,8 +16046,12 @@
       <c r="B42" s="297" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="298"/>
-      <c r="E42" s="298"/>
+      <c r="C42" s="543" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="543" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G42" s="295" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -15779,8 +16061,12 @@
       <c r="B43" s="297" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="298"/>
-      <c r="E43" s="298"/>
+      <c r="C43" s="543" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="543" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="295" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -15790,8 +16076,12 @@
       <c r="B44" s="297" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="298"/>
-      <c r="E44" s="298"/>
+      <c r="C44" s="543" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="543" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G44" s="295" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -15801,8 +16091,12 @@
       <c r="B45" s="297" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="298"/>
-      <c r="E45" s="298"/>
+      <c r="C45" s="543" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E45" s="543" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G45" s="295" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
@@ -15905,6 +16199,7 @@
       <c r="H62" s="307"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -16117,8 +16412,12 @@
       <c r="B19" s="327" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="328"/>
-      <c r="E19" s="328"/>
+      <c r="C19" s="557" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="557" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="325" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -16128,8 +16427,12 @@
       <c r="B20" s="327" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="328"/>
-      <c r="E20" s="328"/>
+      <c r="C20" s="557" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="557" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G20" s="325" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -16139,8 +16442,12 @@
       <c r="B21" s="327" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="328"/>
-      <c r="E21" s="328"/>
+      <c r="C21" s="557" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="557" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G21" s="325" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -16150,8 +16457,12 @@
       <c r="B22" s="327" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="328"/>
-      <c r="E22" s="328"/>
+      <c r="C22" s="557" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="557" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G22" s="325" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -16161,8 +16472,12 @@
       <c r="B23" s="327" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="328"/>
-      <c r="E23" s="328"/>
+      <c r="C23" s="557" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="557" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G23" s="325" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -16192,8 +16507,12 @@
       <c r="B26" s="327" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="328"/>
-      <c r="E26" s="328"/>
+      <c r="C26" s="557" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="557" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="325" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -16203,8 +16522,12 @@
       <c r="B27" s="327" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="328"/>
-      <c r="E27" s="328"/>
+      <c r="C27" s="557" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="557" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G27" s="325" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -16214,8 +16537,12 @@
       <c r="B28" s="327" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="328"/>
-      <c r="E28" s="328"/>
+      <c r="C28" s="557" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="557" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G28" s="325" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -16225,8 +16552,12 @@
       <c r="B29" s="327" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="328"/>
-      <c r="E29" s="328"/>
+      <c r="C29" s="557" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="557" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G29" s="325" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -16236,8 +16567,12 @@
       <c r="B30" s="327" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="328"/>
-      <c r="E30" s="328"/>
+      <c r="C30" s="557" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="557" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G30" s="325" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -16267,8 +16602,12 @@
       <c r="B33" s="327" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="328"/>
-      <c r="E33" s="328"/>
+      <c r="C33" s="557" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="557" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G33" s="325" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -16278,8 +16617,12 @@
       <c r="B34" s="327" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="328"/>
-      <c r="E34" s="328"/>
+      <c r="C34" s="557" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E34" s="557" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G34" s="325" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -16289,8 +16632,12 @@
       <c r="B35" s="327" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="328"/>
-      <c r="E35" s="328"/>
+      <c r="C35" s="557" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="557" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G35" s="325" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Abdelaziz El Maatougui.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Abdelaziz El Maatougui.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="2022" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="1" sheetId="2" r:id="rId5"/>
@@ -17,7 +20,6 @@
     <sheet state="visible" name="11" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="12" sheetId="13" r:id="rId16"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="117">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -376,6 +378,9 @@
   </si>
   <si>
     <t>Diciembre</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1362,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="140">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1646,6 +1651,42 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="61" fillId="16" fontId="18" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2255,20 +2296,21 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:AC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.71"/>
-    <col customWidth="1" min="2" max="8" width="6.71"/>
-    <col customWidth="1" min="9" max="9" width="2.71"/>
-    <col customWidth="1" min="10" max="16" width="6.71"/>
-    <col customWidth="1" min="17" max="17" width="2.71"/>
-    <col customWidth="1" min="18" max="24" width="6.71"/>
-    <col customWidth="1" min="25" max="25" width="10.0"/>
-    <col customWidth="1" min="26" max="26" width="5.71"/>
-    <col customWidth="1" min="27" max="29" width="25.0"/>
+    <col min="1" max="1" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="5.71" collapsed="true"/>
+    <col min="27" max="29" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
@@ -5219,24 +5261,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -5376,22 +5419,28 @@
       <c r="B16" s="125">
         <v>1.0</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="G16" s="110">
-        <f t="shared" ref="G16:G17" si="1">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
-        <v>0</v>
+      <c r="C16" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="125">
         <v>2.0</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="G17" s="110">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C17" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
@@ -6712,24 +6761,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -8212,24 +8262,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -9703,24 +9754,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -11202,24 +11254,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -12803,24 +12856,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -14389,24 +14443,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -15997,24 +16052,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -17577,24 +17633,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -19182,24 +19239,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -20768,24 +20826,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -20925,10 +20984,10 @@
       <c r="B16" s="125">
         <v>1.0</v>
       </c>
-      <c r="C16" s="113">
+      <c r="C16" s="137" t="n">
         <v>0.375</v>
       </c>
-      <c r="E16" s="113">
+      <c r="E16" s="137" t="n">
         <v>0.75</v>
       </c>
       <c r="G16" s="110">
@@ -20960,10 +21019,10 @@
       <c r="B19" s="125">
         <v>4.0</v>
       </c>
-      <c r="C19" s="113">
+      <c r="C19" s="137" t="n">
         <v>0.375</v>
       </c>
-      <c r="E19" s="113">
+      <c r="E19" s="137" t="n">
         <v>0.75</v>
       </c>
       <c r="G19" s="110">
@@ -20975,10 +21034,10 @@
       <c r="B20" s="125">
         <v>5.0</v>
       </c>
-      <c r="C20" s="113">
+      <c r="C20" s="137" t="n">
         <v>0.375</v>
       </c>
-      <c r="E20" s="113">
+      <c r="E20" s="137" t="n">
         <v>0.75</v>
       </c>
       <c r="G20" s="110">
@@ -20990,10 +21049,10 @@
       <c r="B21" s="125">
         <v>6.0</v>
       </c>
-      <c r="C21" s="113">
+      <c r="C21" s="137" t="n">
         <v>0.375</v>
       </c>
-      <c r="E21" s="113">
+      <c r="E21" s="137" t="n">
         <v>0.75</v>
       </c>
       <c r="G21" s="110">
@@ -21005,10 +21064,10 @@
       <c r="B22" s="125">
         <v>7.0</v>
       </c>
-      <c r="C22" s="113">
+      <c r="C22" s="137" t="n">
         <v>0.375</v>
       </c>
-      <c r="E22" s="113">
+      <c r="E22" s="137" t="n">
         <v>0.75</v>
       </c>
       <c r="G22" s="110">
@@ -21020,10 +21079,10 @@
       <c r="B23" s="125">
         <v>8.0</v>
       </c>
-      <c r="C23" s="113">
+      <c r="C23" s="137" t="n">
         <v>0.375</v>
       </c>
-      <c r="E23" s="113">
+      <c r="E23" s="137" t="n">
         <v>0.75</v>
       </c>
       <c r="G23" s="110">
@@ -21055,10 +21114,10 @@
       <c r="B26" s="125">
         <v>11.0</v>
       </c>
-      <c r="C26" s="113">
+      <c r="C26" s="137" t="n">
         <v>0.375</v>
       </c>
-      <c r="E26" s="113">
+      <c r="E26" s="137" t="n">
         <v>0.75</v>
       </c>
       <c r="G26" s="110">
@@ -21070,10 +21129,10 @@
       <c r="B27" s="125">
         <v>12.0</v>
       </c>
-      <c r="C27" s="113">
+      <c r="C27" s="137" t="n">
         <v>0.375</v>
       </c>
-      <c r="E27" s="113">
+      <c r="E27" s="137" t="n">
         <v>0.75</v>
       </c>
       <c r="G27" s="110">
@@ -21085,10 +21144,10 @@
       <c r="B28" s="125">
         <v>13.0</v>
       </c>
-      <c r="C28" s="113">
+      <c r="C28" s="137" t="n">
         <v>0.375</v>
       </c>
-      <c r="E28" s="113">
+      <c r="E28" s="137" t="n">
         <v>0.75</v>
       </c>
       <c r="G28" s="110">
@@ -21100,10 +21159,10 @@
       <c r="B29" s="125">
         <v>14.0</v>
       </c>
-      <c r="C29" s="113">
+      <c r="C29" s="137" t="n">
         <v>0.375</v>
       </c>
-      <c r="E29" s="113">
+      <c r="E29" s="137" t="n">
         <v>0.75</v>
       </c>
       <c r="G29" s="110">
@@ -21115,10 +21174,10 @@
       <c r="B30" s="125">
         <v>15.0</v>
       </c>
-      <c r="C30" s="113">
+      <c r="C30" s="137" t="n">
         <v>0.375</v>
       </c>
-      <c r="E30" s="113">
+      <c r="E30" s="137" t="n">
         <v>0.75</v>
       </c>
       <c r="G30" s="110">
@@ -21150,10 +21209,10 @@
       <c r="B33" s="125">
         <v>18.0</v>
       </c>
-      <c r="C33" s="113">
+      <c r="C33" s="137" t="n">
         <v>0.375</v>
       </c>
-      <c r="E33" s="113">
+      <c r="E33" s="137" t="n">
         <v>0.75</v>
       </c>
       <c r="G33" s="110">
@@ -21165,10 +21224,10 @@
       <c r="B34" s="125">
         <v>19.0</v>
       </c>
-      <c r="C34" s="113">
+      <c r="C34" s="137" t="n">
         <v>0.375</v>
       </c>
-      <c r="E34" s="113">
+      <c r="E34" s="137" t="n">
         <v>0.75</v>
       </c>
       <c r="G34" s="110">
@@ -21180,10 +21239,10 @@
       <c r="B35" s="125">
         <v>20.0</v>
       </c>
-      <c r="C35" s="113">
+      <c r="C35" s="137" t="n">
         <v>0.375</v>
       </c>
-      <c r="E35" s="113">
+      <c r="E35" s="137" t="n">
         <v>0.75</v>
       </c>
       <c r="G35" s="110">
@@ -21195,8 +21254,12 @@
       <c r="B36" s="125">
         <v>21.0</v>
       </c>
-      <c r="C36" s="127"/>
-      <c r="E36" s="127"/>
+      <c r="C36" s="137" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="137" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G36" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21206,8 +21269,12 @@
       <c r="B37" s="125">
         <v>22.0</v>
       </c>
-      <c r="C37" s="127"/>
-      <c r="E37" s="127"/>
+      <c r="C37" s="137" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="137" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G37" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21247,8 +21314,12 @@
       <c r="B41" s="125">
         <v>26.0</v>
       </c>
-      <c r="C41" s="127"/>
-      <c r="E41" s="127"/>
+      <c r="C41" s="137" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="137" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G41" s="110">
         <f t="shared" ref="G41:G44" si="4">IF((E41-C41)*24&lt;=4,(E41-C41)*24,(E41-C41)*24-1)</f>
         <v>0</v>
@@ -21258,8 +21329,12 @@
       <c r="B42" s="125">
         <v>27.0</v>
       </c>
-      <c r="C42" s="127"/>
-      <c r="E42" s="127"/>
+      <c r="C42" s="137" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="137" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G42" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -21269,8 +21344,12 @@
       <c r="B43" s="125">
         <v>28.0</v>
       </c>
-      <c r="C43" s="127"/>
-      <c r="E43" s="127"/>
+      <c r="C43" s="137" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="137" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -21280,8 +21359,12 @@
       <c r="B44" s="125">
         <v>29.0</v>
       </c>
-      <c r="C44" s="127"/>
-      <c r="E44" s="127"/>
+      <c r="C44" s="137" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="137" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G44" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -22324,24 +22407,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -22481,55 +22565,70 @@
       <c r="B16" s="125">
         <v>1.0</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="G16" s="110">
-        <f t="shared" ref="G16:G20" si="1">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
-        <v>0</v>
+      <c r="C16" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="125">
         <v>2.0</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="G17" s="110">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C17" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="125">
         <v>3.0</v>
       </c>
-      <c r="C18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="G18" s="110">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C18" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="B19" s="125">
         <v>4.0</v>
       </c>
-      <c r="C19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="G19" s="110">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C19" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="B20" s="125">
         <v>5.0</v>
       </c>
-      <c r="C20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="G20" s="110">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C20" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
@@ -22556,55 +22655,70 @@
       <c r="B23" s="125">
         <v>8.0</v>
       </c>
-      <c r="C23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="G23" s="110">
-        <f t="shared" ref="G23:G27" si="2">IF((E23-C23)*24&lt;=4,(E23-C23)*24,(E23-C23)*24-1)</f>
-        <v>0</v>
+      <c r="C23" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="B24" s="125">
         <v>9.0</v>
       </c>
-      <c r="C24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="G24" s="110">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C24" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="B25" s="125">
         <v>10.0</v>
       </c>
-      <c r="C25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="G25" s="110">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C25" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="B26" s="125">
         <v>11.0</v>
       </c>
-      <c r="C26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="G26" s="110">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C26" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="B27" s="125">
         <v>12.0</v>
       </c>
-      <c r="C27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="G27" s="110">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C27" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
@@ -22641,44 +22755,56 @@
       <c r="B31" s="125">
         <v>16.0</v>
       </c>
-      <c r="C31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="G31" s="110">
-        <f t="shared" ref="G31:G34" si="3">IF((E31-C31)*24&lt;=4,(E31-C31)*24,(E31-C31)*24-1)</f>
-        <v>0</v>
+      <c r="C31" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="B32" s="125">
         <v>17.0</v>
       </c>
-      <c r="C32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="G32" s="110">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C32" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="B33" s="125">
         <v>18.0</v>
       </c>
-      <c r="C33" s="127"/>
-      <c r="E33" s="127"/>
-      <c r="G33" s="110">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C33" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="B34" s="125">
         <v>19.0</v>
       </c>
-      <c r="C34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="G34" s="110">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C34" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
@@ -22705,55 +22831,70 @@
       <c r="B37" s="125">
         <v>22.0</v>
       </c>
-      <c r="C37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="G37" s="110">
-        <f t="shared" ref="G37:G41" si="4">IF((E37-C37)*24&lt;=4,(E37-C37)*24,(E37-C37)*24-1)</f>
-        <v>0</v>
+      <c r="C37" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="B38" s="125">
         <v>23.0</v>
       </c>
-      <c r="C38" s="127"/>
-      <c r="E38" s="127"/>
-      <c r="G38" s="110">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C38" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="B39" s="125">
         <v>24.0</v>
       </c>
-      <c r="C39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="G39" s="110">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C39" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="B40" s="125">
         <v>25.0</v>
       </c>
-      <c r="C40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="G40" s="110">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C40" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="B41" s="125">
         <v>26.0</v>
       </c>
-      <c r="C41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="G41" s="110">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C41" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
@@ -22780,33 +22921,42 @@
       <c r="B44" s="125">
         <v>29.0</v>
       </c>
-      <c r="C44" s="127"/>
-      <c r="E44" s="127"/>
-      <c r="G44" s="110">
-        <f t="shared" ref="G44:G46" si="5">IF((E44-C44)*24&lt;=4,(E44-C44)*24,(E44-C44)*24-1)</f>
-        <v>0</v>
+      <c r="C44" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="B45" s="125">
         <v>30.0</v>
       </c>
-      <c r="C45" s="127"/>
-      <c r="E45" s="127"/>
-      <c r="G45" s="110">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C45" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="B46" s="125">
         <v>31.0</v>
       </c>
-      <c r="C46" s="127"/>
-      <c r="E46" s="127"/>
-      <c r="G46" s="110">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C46" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Abdelaziz El Maatougui.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Abdelaziz El Maatougui.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="117">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -1362,7 +1362,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="144">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1651,6 +1651,18 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="61" fillId="16" fontId="18" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
@@ -5467,8 +5479,12 @@
       <c r="B20" s="125">
         <v>5.0</v>
       </c>
-      <c r="C20" s="127"/>
-      <c r="E20" s="127"/>
+      <c r="C20" s="143" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="E20" s="143" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G20" s="110">
         <f t="shared" ref="G20:G24" si="2">IF((E20-C20)*24&lt;=4,(E20-C20)*24,(E20-C20)*24-1)</f>
         <v>0</v>
@@ -5478,8 +5494,12 @@
       <c r="B21" s="125">
         <v>6.0</v>
       </c>
-      <c r="C21" s="127"/>
-      <c r="E21" s="127"/>
+      <c r="C21" s="143" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="E21" s="143" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G21" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5489,8 +5509,12 @@
       <c r="B22" s="125">
         <v>7.0</v>
       </c>
-      <c r="C22" s="127"/>
-      <c r="E22" s="127"/>
+      <c r="C22" s="143" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="E22" s="143" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G22" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5500,8 +5524,12 @@
       <c r="B23" s="125">
         <v>8.0</v>
       </c>
-      <c r="C23" s="127"/>
-      <c r="E23" s="127"/>
+      <c r="C23" s="143" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="E23" s="143" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G23" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5511,8 +5539,12 @@
       <c r="B24" s="125">
         <v>9.0</v>
       </c>
-      <c r="C24" s="127"/>
-      <c r="E24" s="127"/>
+      <c r="C24" s="143" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="E24" s="143" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G24" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5542,8 +5574,12 @@
       <c r="B27" s="125">
         <v>12.0</v>
       </c>
-      <c r="C27" s="127"/>
-      <c r="E27" s="127"/>
+      <c r="C27" s="143" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="143" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G27" s="110">
         <f t="shared" ref="G27:G31" si="3">IF((E27-C27)*24&lt;=4,(E27-C27)*24,(E27-C27)*24-1)</f>
         <v>0</v>
@@ -5553,8 +5589,12 @@
       <c r="B28" s="125">
         <v>13.0</v>
       </c>
-      <c r="C28" s="127"/>
-      <c r="E28" s="127"/>
+      <c r="C28" s="143" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="143" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G28" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5564,8 +5604,12 @@
       <c r="B29" s="125">
         <v>14.0</v>
       </c>
-      <c r="C29" s="127"/>
-      <c r="E29" s="127"/>
+      <c r="C29" s="143" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="143" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G29" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5575,8 +5619,12 @@
       <c r="B30" s="125">
         <v>15.0</v>
       </c>
-      <c r="C30" s="127"/>
-      <c r="E30" s="127"/>
+      <c r="C30" s="143" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="143" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G30" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5586,8 +5634,12 @@
       <c r="B31" s="125">
         <v>16.0</v>
       </c>
-      <c r="C31" s="127"/>
-      <c r="E31" s="127"/>
+      <c r="C31" s="143" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="143" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G31" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12835,6 +12887,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -14422,6 +14475,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -16031,6 +16085,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -17612,6 +17667,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -19218,6 +19274,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -20805,6 +20862,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -22386,6 +22444,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -23955,6 +24014,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
